--- a/staff.xlsx
+++ b/staff.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Инженер-электроник, 4гр</t>
   </si>
   <si>
-    <t xml:space="preserve">Черенков А.В. 4гр.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Афлятунов М.М. 4гр.</t>
+    <t xml:space="preserve">Черенков А.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Афлятунов М.М.</t>
   </si>
   <si>
     <t xml:space="preserve">Рабочие</t>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -120,6 +120,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -146,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +189,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,18 +218,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1004400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>430920</xdr:rowOff>
+      <xdr:colOff>1231200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -209,8 +242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5091840" y="326520"/>
-          <a:ext cx="1000080" cy="429480"/>
+          <a:off x="5088240" y="325080"/>
+          <a:ext cx="1231200" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -222,22 +255,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
+      <xdr:colOff>1065960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>519120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Изображение 3" descr=""/>
+        <xdr:cNvPr id="1" name="Изображение 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -246,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5231520" y="1404720"/>
-          <a:ext cx="653400" cy="519120"/>
+          <a:off x="5088240" y="864720"/>
+          <a:ext cx="1065960" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,22 +292,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1000080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>477720</xdr:rowOff>
+      <xdr:colOff>659880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Изображение 1" descr=""/>
+        <xdr:cNvPr id="2" name="Изображение 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -283,8 +316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5087520" y="864720"/>
-          <a:ext cx="1000080" cy="477720"/>
+          <a:off x="5088240" y="1404720"/>
+          <a:ext cx="659880" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -296,7 +329,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -305,9 +338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>509040</xdr:rowOff>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,8 +353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5087520" y="1944360"/>
-          <a:ext cx="594000" cy="509040"/>
+          <a:off x="5088240" y="1944360"/>
+          <a:ext cx="609120" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -333,7 +366,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -342,9 +375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>950400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>518400</xdr:rowOff>
+      <xdr:colOff>951840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -357,8 +390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5087520" y="2484000"/>
-          <a:ext cx="950400" cy="518400"/>
+          <a:off x="5088240" y="2484000"/>
+          <a:ext cx="951840" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,16 +414,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +470,7 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -453,7 +486,7 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -471,7 +504,7 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -487,7 +520,7 @@
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -503,7 +536,7 @@
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -513,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/staff.xlsx
+++ b/staff.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">даты рабочей вахты</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t xml:space="preserve">Гурьянов В.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечания: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Для обозначения конца месяца используйте 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Для исключения рабочего из отчетов оставьте ячейки с датами пустыми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Даты работ будут автоматически меняться 1 числа каждого месяца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Высота картинки с подписью должна быть не больше 15мм</t>
   </si>
 </sst>
 </file>
@@ -167,16 +182,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,9 +246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1231200</xdr:colOff>
+      <xdr:colOff>1230840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -242,8 +261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088240" y="325080"/>
-          <a:ext cx="1231200" cy="545400"/>
+          <a:off x="5088240" y="324000"/>
+          <a:ext cx="1230840" cy="545040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -264,9 +283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1065960</xdr:colOff>
+      <xdr:colOff>1065600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,8 +298,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088240" y="864720"/>
-          <a:ext cx="1065960" cy="545400"/>
+          <a:off x="5088240" y="857160"/>
+          <a:ext cx="1065600" cy="545040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,9 +320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>659880</xdr:colOff>
+      <xdr:colOff>659520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,8 +335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088240" y="1404720"/>
-          <a:ext cx="659880" cy="545400"/>
+          <a:off x="5088240" y="1390680"/>
+          <a:ext cx="659520" cy="545040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,9 +357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -353,8 +372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088240" y="1944360"/>
-          <a:ext cx="609120" cy="545400"/>
+          <a:off x="5088240" y="1924200"/>
+          <a:ext cx="608760" cy="545040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,9 +394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>951840</xdr:colOff>
+      <xdr:colOff>951480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,8 +409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088240" y="2484000"/>
-          <a:ext cx="951840" cy="545400"/>
+          <a:off x="5088240" y="2457360"/>
+          <a:ext cx="951480" cy="545040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,142 +430,167 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.04"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="n">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="n">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="n">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -562,8 +606,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 Страница &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
